--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_Tertiary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_Tertiary_o.xlsx
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C131" t="n">
